--- a/backend/fms_core/static/submission_templates/Container_creation_v3_2_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Container_creation_v3_2_0.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Naming Rules</t>
   </si>
   <si>
-    <t xml:space="preserve">- Only use the following characters for Container name and Barcode: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
+    <t xml:space="preserve">- Only use the following characters for Container name: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -429,10 +429,10 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="9.41"/>
   </cols>
   <sheetData>
@@ -5086,9 +5086,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="9.41"/>
   </cols>
   <sheetData>

--- a/backend/fms_core/static/submission_templates/Container_creation_v3_2_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Container_creation_v3_2_0.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDA6EE-DE70-2D47-8305-1510C0881485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ContainerCreation" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Index" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ContainerCreation" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,152 +26,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Container Creation Template</t>
+    <t>Container Creation Template</t>
   </si>
   <si>
-    <t xml:space="preserve">Naming Rules</t>
+    <t>Naming Rules</t>
   </si>
   <si>
-    <t xml:space="preserve">- Only use the following characters for Container name: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
+    <t>- Only use the following characters for Container name: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
   </si>
   <si>
-    <t xml:space="preserve">#</t>
+    <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Container Kind</t>
+    <t>Container Kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Container Name</t>
+    <t>Container Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Container Barcode</t>
+    <t>Container Barcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Location Barcode</t>
+    <t>Location Barcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Location Coordinate</t>
+    <t>Location Coordinate</t>
   </si>
   <si>
-    <t xml:space="preserve">Tube box 6x6</t>
+    <t>Tube box 6x6</t>
   </si>
   <si>
-    <t xml:space="preserve">Tube box 8x8</t>
+    <t>Tube box 8x8</t>
   </si>
   <si>
     <t xml:space="preserve">Tube box 9x9 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tube box 10x10</t>
+    <t>Tube box 10x10</t>
   </si>
   <si>
-    <t xml:space="preserve">Tube rack 8x12</t>
+    <t>Tube rack 8x12</t>
   </si>
   <si>
     <t xml:space="preserve">Drawer </t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer rack 4x4</t>
+    <t>Freezer rack 4x4</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer rack 7x4</t>
+    <t>Freezer rack 7x4</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer rack 8x6</t>
+    <t>Freezer rack 8x6</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer rack 11x6</t>
+    <t>Freezer rack 11x6</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer 3 shelves</t>
+    <t>Freezer 3 shelves</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer 5 shelves</t>
+    <t>Freezer 5 shelves</t>
   </si>
   <si>
-    <t xml:space="preserve">Room</t>
+    <t>Room</t>
   </si>
   <si>
-    <t xml:space="preserve">Box</t>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Tube box 7x7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFBFBFBF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFBFBFBF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -192,169 +174,176 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -413,60 +402,368 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="22.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="9.41"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -486,8 +783,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="8"/>
@@ -496,8 +793,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="8"/>
@@ -506,8 +803,8 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="8"/>
@@ -516,8 +813,8 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11" s="8"/>
@@ -526,8 +823,8 @@
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
       <c r="B12" s="8"/>
@@ -536,8 +833,8 @@
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
       <c r="B13" s="8"/>
@@ -546,8 +843,8 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
       <c r="B14" s="8"/>
@@ -556,8 +853,8 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
       <c r="B15" s="8"/>
@@ -566,8 +863,8 @@
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
       <c r="B16" s="8"/>
@@ -576,8 +873,8 @@
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
       <c r="B17" s="8"/>
@@ -586,8 +883,8 @@
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
       <c r="B18" s="8"/>
@@ -596,8 +893,8 @@
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
       <c r="B19" s="8"/>
@@ -606,8 +903,8 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>13</v>
       </c>
       <c r="B20" s="8"/>
@@ -616,8 +913,8 @@
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
       <c r="B21" s="8"/>
@@ -626,8 +923,8 @@
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
       <c r="B22" s="8"/>
@@ -636,8 +933,8 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
       <c r="B23" s="8"/>
@@ -646,8 +943,8 @@
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>17</v>
       </c>
       <c r="B24" s="8"/>
@@ -656,8 +953,8 @@
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>18</v>
       </c>
       <c r="B25" s="8"/>
@@ -666,8 +963,8 @@
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>19</v>
       </c>
       <c r="B26" s="8"/>
@@ -676,8 +973,8 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>20</v>
       </c>
       <c r="B27" s="8"/>
@@ -686,8 +983,8 @@
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
       <c r="B28" s="8"/>
@@ -696,8 +993,8 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>22</v>
       </c>
       <c r="B29" s="8"/>
@@ -706,8 +1003,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
       <c r="B30" s="8"/>
@@ -716,8 +1013,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
       <c r="B31" s="8"/>
@@ -726,8 +1023,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>25</v>
       </c>
       <c r="B32" s="8"/>
@@ -736,8 +1033,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
       <c r="B33" s="8"/>
@@ -746,8 +1043,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
       <c r="B34" s="8"/>
@@ -756,8 +1053,8 @@
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>28</v>
       </c>
       <c r="B35" s="8"/>
@@ -766,8 +1063,8 @@
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>29</v>
       </c>
       <c r="B36" s="8"/>
@@ -776,8 +1073,8 @@
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>30</v>
       </c>
       <c r="B37" s="8"/>
@@ -786,8 +1083,8 @@
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>31</v>
       </c>
       <c r="B38" s="8"/>
@@ -796,8 +1093,8 @@
       <c r="E38" s="9"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>32</v>
       </c>
       <c r="B39" s="8"/>
@@ -806,8 +1103,8 @@
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>33</v>
       </c>
       <c r="B40" s="8"/>
@@ -816,8 +1113,8 @@
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>34</v>
       </c>
       <c r="B41" s="8"/>
@@ -826,8 +1123,8 @@
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>35</v>
       </c>
       <c r="B42" s="8"/>
@@ -836,8 +1133,8 @@
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>36</v>
       </c>
       <c r="B43" s="8"/>
@@ -846,8 +1143,8 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>37</v>
       </c>
       <c r="B44" s="8"/>
@@ -856,8 +1153,8 @@
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>38</v>
       </c>
       <c r="B45" s="8"/>
@@ -866,8 +1163,8 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>39</v>
       </c>
       <c r="B46" s="8"/>
@@ -876,8 +1173,8 @@
       <c r="E46" s="9"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>40</v>
       </c>
       <c r="B47" s="8"/>
@@ -886,8 +1183,8 @@
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>41</v>
       </c>
       <c r="B48" s="8"/>
@@ -896,8 +1193,8 @@
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>42</v>
       </c>
       <c r="B49" s="8"/>
@@ -906,8 +1203,8 @@
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>43</v>
       </c>
       <c r="B50" s="8"/>
@@ -916,8 +1213,8 @@
       <c r="E50" s="9"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>44</v>
       </c>
       <c r="B51" s="8"/>
@@ -926,8 +1223,8 @@
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>45</v>
       </c>
       <c r="B52" s="8"/>
@@ -936,8 +1233,8 @@
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>46</v>
       </c>
       <c r="B53" s="8"/>
@@ -946,8 +1243,8 @@
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>47</v>
       </c>
       <c r="B54" s="8"/>
@@ -956,8 +1253,8 @@
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>48</v>
       </c>
       <c r="B55" s="8"/>
@@ -966,8 +1263,8 @@
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>49</v>
       </c>
       <c r="B56" s="8"/>
@@ -976,8 +1273,8 @@
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>50</v>
       </c>
       <c r="B57" s="8"/>
@@ -986,8 +1283,8 @@
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>51</v>
       </c>
       <c r="B58" s="8"/>
@@ -996,8 +1293,8 @@
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>52</v>
       </c>
       <c r="B59" s="8"/>
@@ -1006,8 +1303,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>53</v>
       </c>
       <c r="B60" s="8"/>
@@ -1016,8 +1313,8 @@
       <c r="E60" s="9"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>54</v>
       </c>
       <c r="B61" s="8"/>
@@ -1026,8 +1323,8 @@
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>55</v>
       </c>
       <c r="B62" s="8"/>
@@ -1036,8 +1333,8 @@
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>56</v>
       </c>
       <c r="B63" s="8"/>
@@ -1046,8 +1343,8 @@
       <c r="E63" s="9"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>57</v>
       </c>
       <c r="B64" s="8"/>
@@ -1056,8 +1353,8 @@
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>58</v>
       </c>
       <c r="B65" s="8"/>
@@ -1066,8 +1363,8 @@
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>59</v>
       </c>
       <c r="B66" s="8"/>
@@ -1076,8 +1373,8 @@
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>60</v>
       </c>
       <c r="B67" s="8"/>
@@ -1086,8 +1383,8 @@
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>61</v>
       </c>
       <c r="B68" s="8"/>
@@ -1096,8 +1393,8 @@
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>62</v>
       </c>
       <c r="B69" s="8"/>
@@ -1106,8 +1403,8 @@
       <c r="E69" s="9"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>63</v>
       </c>
       <c r="B70" s="8"/>
@@ -1116,8 +1413,8 @@
       <c r="E70" s="9"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>64</v>
       </c>
       <c r="B71" s="8"/>
@@ -1126,8 +1423,8 @@
       <c r="E71" s="9"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>65</v>
       </c>
       <c r="B72" s="8"/>
@@ -1136,8 +1433,8 @@
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>66</v>
       </c>
       <c r="B73" s="8"/>
@@ -1146,8 +1443,8 @@
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>67</v>
       </c>
       <c r="B74" s="8"/>
@@ -1156,8 +1453,8 @@
       <c r="E74" s="9"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>68</v>
       </c>
       <c r="B75" s="8"/>
@@ -1166,8 +1463,8 @@
       <c r="E75" s="9"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>69</v>
       </c>
       <c r="B76" s="8"/>
@@ -1176,8 +1473,8 @@
       <c r="E76" s="9"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>70</v>
       </c>
       <c r="B77" s="8"/>
@@ -1186,8 +1483,8 @@
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>71</v>
       </c>
       <c r="B78" s="8"/>
@@ -1196,8 +1493,8 @@
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>72</v>
       </c>
       <c r="B79" s="8"/>
@@ -1206,8 +1503,8 @@
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>73</v>
       </c>
       <c r="B80" s="8"/>
@@ -1216,8 +1513,8 @@
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>74</v>
       </c>
       <c r="B81" s="8"/>
@@ -1226,8 +1523,8 @@
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>75</v>
       </c>
       <c r="B82" s="8"/>
@@ -1236,8 +1533,8 @@
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>76</v>
       </c>
       <c r="B83" s="8"/>
@@ -1246,8 +1543,8 @@
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>77</v>
       </c>
       <c r="B84" s="8"/>
@@ -1256,8 +1553,8 @@
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>78</v>
       </c>
       <c r="B85" s="8"/>
@@ -1266,8 +1563,8 @@
       <c r="E85" s="9"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>79</v>
       </c>
       <c r="B86" s="8"/>
@@ -1276,8 +1573,8 @@
       <c r="E86" s="9"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>80</v>
       </c>
       <c r="B87" s="8"/>
@@ -1286,8 +1583,8 @@
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
         <v>81</v>
       </c>
       <c r="B88" s="8"/>
@@ -1296,8 +1593,8 @@
       <c r="E88" s="9"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>82</v>
       </c>
       <c r="B89" s="8"/>
@@ -1306,8 +1603,8 @@
       <c r="E89" s="9"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>83</v>
       </c>
       <c r="B90" s="8"/>
@@ -1316,8 +1613,8 @@
       <c r="E90" s="9"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
         <v>84</v>
       </c>
       <c r="B91" s="8"/>
@@ -1326,8 +1623,8 @@
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
         <v>85</v>
       </c>
       <c r="B92" s="8"/>
@@ -1336,8 +1633,8 @@
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
         <v>86</v>
       </c>
       <c r="B93" s="8"/>
@@ -1346,8 +1643,8 @@
       <c r="E93" s="9"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>87</v>
       </c>
       <c r="B94" s="8"/>
@@ -1356,8 +1653,8 @@
       <c r="E94" s="9"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
         <v>88</v>
       </c>
       <c r="B95" s="8"/>
@@ -1366,8 +1663,8 @@
       <c r="E95" s="9"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
         <v>89</v>
       </c>
       <c r="B96" s="8"/>
@@ -1376,8 +1673,8 @@
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>90</v>
       </c>
       <c r="B97" s="8"/>
@@ -1386,8 +1683,8 @@
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>91</v>
       </c>
       <c r="B98" s="8"/>
@@ -1396,8 +1693,8 @@
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>92</v>
       </c>
       <c r="B99" s="8"/>
@@ -1406,8 +1703,8 @@
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>93</v>
       </c>
       <c r="B100" s="8"/>
@@ -1416,8 +1713,8 @@
       <c r="E100" s="9"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>94</v>
       </c>
       <c r="B101" s="8"/>
@@ -1426,8 +1723,8 @@
       <c r="E101" s="9"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
         <v>95</v>
       </c>
       <c r="B102" s="8"/>
@@ -1436,8 +1733,8 @@
       <c r="E102" s="9"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
         <v>96</v>
       </c>
       <c r="B103" s="8"/>
@@ -1446,8 +1743,8 @@
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
         <v>97</v>
       </c>
       <c r="B104" s="8"/>
@@ -1456,8 +1753,8 @@
       <c r="E104" s="9"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>98</v>
       </c>
       <c r="B105" s="8"/>
@@ -1466,8 +1763,8 @@
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>99</v>
       </c>
       <c r="B106" s="8"/>
@@ -1476,8 +1773,8 @@
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>100</v>
       </c>
       <c r="B107" s="8"/>
@@ -1486,4674 +1783,4675 @@
       <c r="E107" s="11"/>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
     </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
     </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
     </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
     </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
     </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
     </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
     </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
     </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
     </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
     </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
     </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
     </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
     </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
     </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
     </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
     </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
     </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
     </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
     </row>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="997" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
     </row>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="998" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
     </row>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="999" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
     </row>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B107" type="list">
-      <formula1>Index!$A$2:$A$15</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Index!$A$2:$A$16</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B8:B107</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="9.41"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>